--- a/organisation personnelle/gantt.xlsx
+++ b/organisation personnelle/gantt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">Nom:</t>
   </si>
@@ -73,12 +73,6 @@
     <t xml:space="preserve">tests unitaires 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Javadoc 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assertions java 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">faire les tests et corriger 1</t>
   </si>
   <si>
@@ -91,12 +85,6 @@
     <t xml:space="preserve">tests unitaires 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Javadoc 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assertions java 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">faire les tests et corriger 2</t>
   </si>
   <si>
@@ -107,12 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">tests unitaires 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javadoc 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assertions java 3</t>
   </si>
   <si>
     <t xml:space="preserve">faire les tests et corriger 3</t>
@@ -511,11 +493,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,16 +595,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:Z45"/>
+  <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
@@ -630,9 +612,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="11" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="10.65"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -684,23 +667,23 @@
       </c>
       <c r="E7" s="5" t="n">
         <f aca="false">SUM(E10:E35)</f>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="n">
         <f aca="false">SUM(F10:F35)</f>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G7" s="5" t="n">
         <f aca="false">SUM(G10:G35)</f>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">SUM(H10:H35)</f>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">SUM(I10:I35)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J7" s="6" t="n">
         <f aca="false">SUM(J10:J35)</f>
@@ -1149,10 +1132,10 @@
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="21" t="n">
         <v>30</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>10</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -1215,12 +1198,12 @@
       </c>
       <c r="C19" s="19" t="n">
         <f aca="false">SUM(D19:Z19)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -1279,18 +1262,18 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C21" s="19" t="n">
         <f aca="false">SUM(D21:Z21)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21" t="n">
-        <v>15</v>
-      </c>
-      <c r="G21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -1313,18 +1296,18 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="19" t="n">
         <f aca="false">SUM(D22:Z22)</f>
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="n">
+        <v>40</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -1347,18 +1330,18 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23" s="19" t="n">
         <f aca="false">SUM(D23:Z23)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21" t="n">
+        <v>3</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -1385,17 +1368,17 @@
       </c>
       <c r="C24" s="19" t="n">
         <f aca="false">SUM(D24:Z24)</f>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="21" t="n">
-        <v>30</v>
-      </c>
+      <c r="F24" s="21"/>
       <c r="G24" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>9</v>
+      </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -1426,10 +1409,10 @@
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
@@ -1451,19 +1434,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="18" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C26" s="19" t="n">
         <f aca="false">SUM(D26:Z26)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -1485,20 +1468,22 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="19" t="n">
         <f aca="false">SUM(D27:Z27)</f>
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I27" s="21" t="n">
+        <v>5</v>
+      </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -1519,20 +1504,20 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="19" t="n">
         <f aca="false">SUM(D28:Z28)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21" t="n">
-        <v>15</v>
-      </c>
+      <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="I28" s="21" t="n">
+        <v>3</v>
+      </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -1553,20 +1538,20 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="19" t="n">
         <f aca="false">SUM(D29:Z29)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="I29" s="21" t="n">
+        <v>15</v>
+      </c>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
@@ -1587,20 +1572,20 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="18" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C30" s="19" t="n">
         <f aca="false">SUM(D30:Z30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="I30" s="21" t="n">
+        <v>3</v>
+      </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
@@ -1621,22 +1606,20 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="18" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C31" s="19" t="n">
         <f aca="false">SUM(D31:Z31)</f>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="H31" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="I31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
@@ -1656,20 +1639,15 @@
       <c r="Z31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="18" t="s">
-        <v>28</v>
-      </c>
       <c r="C32" s="19" t="n">
         <f aca="false">SUM(D32:Z32)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
@@ -1690,20 +1668,16 @@
       <c r="Z32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="19" t="n">
         <f aca="false">SUM(D33:Z33)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
@@ -1724,20 +1698,16 @@
       <c r="Z33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="24" t="n">
+      <c r="B34" s="18"/>
+      <c r="C34" s="23" t="n">
         <f aca="false">SUM(D34:Z34)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
@@ -1758,20 +1728,16 @@
       <c r="Z34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="19" t="n">
         <f aca="false">SUM(D35:Z35)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
-      <c r="H35" s="21" t="n">
-        <v>15</v>
-      </c>
+      <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
@@ -1792,20 +1758,16 @@
       <c r="Z35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="B36" s="18"/>
       <c r="C36" s="19" t="n">
         <f aca="false">SUM(D36:Z36)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
@@ -1826,20 +1788,16 @@
       <c r="Z36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="19" t="n">
         <f aca="false">SUM(D37:Z37)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
@@ -1889,7 +1847,7 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="18"/>
       <c r="C39" s="19" t="n">
         <f aca="false">SUM(D39:Z39)</f>
@@ -1919,8 +1877,8 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="22"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="18"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="24"/>
       <c r="C40" s="19" t="n">
         <f aca="false">SUM(D40:Z40)</f>
         <v>0</v>
@@ -1949,8 +1907,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="22"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="18"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="19" t="n">
         <f aca="false">SUM(D41:Z41)</f>
         <v>0</v>
@@ -1979,8 +1936,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="22"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="18"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="19" t="n">
         <f aca="false">SUM(D42:Z42)</f>
         <v>0</v>
@@ -2009,8 +1965,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="22"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="18"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="19" t="n">
         <f aca="false">SUM(D43:Z43)</f>
         <v>0</v>
@@ -2039,8 +1994,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="22"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="18"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="19" t="n">
         <f aca="false">SUM(D44:Z44)</f>
         <v>0</v>
@@ -2069,9 +2023,8 @@
       <c r="Y44" s="21"/>
       <c r="Z44" s="22"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24" t="n">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="23" t="n">
         <f aca="false">SUM(D45:Z45)</f>
         <v>0</v>
       </c>
@@ -2115,12 +2068,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F350DD3E-2B7E-4E54-B870-36FAD248C0E6}</x14:id>
+          <x14:id>{50BDA8B3-3EF0-42D4-8D1B-D5355790F3E2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:P17 D20:P28 D18:H19 J18:P19 H10:P16">
+  <conditionalFormatting sqref="D17:P17 D20:P24 D18:H19 J18:P19 H10:P16 D25:F28 I25:P28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2159,7 +2112,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50BD17BF-30B5-4835-91A0-8E3A75248D26}</x14:id>
+          <x14:id>{59D6B3B2-2E62-4A86-BB19-3D7B965B8C86}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2173,12 +2126,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2252FF82-FABA-44F7-8EE7-A9C2DEDD8900}</x14:id>
+          <x14:id>{B155CEB2-E0D4-47B6-86C2-445DE174E08B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:P29">
+  <conditionalFormatting sqref="I29:P29 D29:F29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2217,12 +2170,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A0C97580-E5E1-4CB8-9513-70661D4D57E6}</x14:id>
+          <x14:id>{E5EC5FB5-1A4E-4168-858A-D58A4B9079AA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:P30 D31:G34 I31:P34">
+  <conditionalFormatting sqref="I30:P34 D30:F34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2261,12 +2214,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB2B6DE0-D4EC-43E7-9C49-B298B04FB618}</x14:id>
+          <x14:id>{D8FCFACD-9D35-40C5-A27D-A96E77194F80}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:P39 D35:G37 I35:P37">
+  <conditionalFormatting sqref="D38:P39 D35:F37 I35:P37">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2305,7 +2258,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1657A238-6C74-4658-869A-1321A8744029}</x14:id>
+          <x14:id>{6668F520-F7F1-4073-B7B3-B011F8491FA3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2349,7 +2302,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{60953E71-7464-479B-A02F-7199CF5F4313}</x14:id>
+          <x14:id>{D09EC41B-23B0-44C5-9986-ADB393C41F21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2404,8 +2357,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H28">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30 G31:G34">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G37">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H31:H37">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -2425,7 +2418,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F350DD3E-2B7E-4E54-B870-36FAD248C0E6}">
+          <x14:cfRule type="dataBar" id="{50BDA8B3-3EF0-42D4-8D1B-D5355790F3E2}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2436,7 +2429,7 @@
           <xm:sqref>C10:C28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{50BD17BF-30B5-4835-91A0-8E3A75248D26}">
+          <x14:cfRule type="dataBar" id="{59D6B3B2-2E62-4A86-BB19-3D7B965B8C86}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2447,7 +2440,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2252FF82-FABA-44F7-8EE7-A9C2DEDD8900}">
+          <x14:cfRule type="dataBar" id="{B155CEB2-E0D4-47B6-86C2-445DE174E08B}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2458,7 +2451,7 @@
           <xm:sqref>C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0C97580-E5E1-4CB8-9513-70661D4D57E6}">
+          <x14:cfRule type="dataBar" id="{E5EC5FB5-1A4E-4168-858A-D58A4B9079AA}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2469,7 +2462,7 @@
           <xm:sqref>C30:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB2B6DE0-D4EC-43E7-9C49-B298B04FB618}">
+          <x14:cfRule type="dataBar" id="{D8FCFACD-9D35-40C5-A27D-A96E77194F80}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2480,7 +2473,7 @@
           <xm:sqref>C35:C39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1657A238-6C74-4658-869A-1321A8744029}">
+          <x14:cfRule type="dataBar" id="{6668F520-F7F1-4073-B7B3-B011F8491FA3}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2491,7 +2484,7 @@
           <xm:sqref>C40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{60953E71-7464-479B-A02F-7199CF5F4313}">
+          <x14:cfRule type="dataBar" id="{D09EC41B-23B0-44C5-9986-ADB393C41F21}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/organisation personnelle/gantt.xlsx
+++ b/organisation personnelle/gantt.xlsx
@@ -598,7 +598,7 @@
   <dimension ref="B1:Z45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -663,11 +663,11 @@
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">SUM(D10:D35)</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="n">
         <f aca="false">SUM(E10:E35)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5" t="n">
         <f aca="false">SUM(F10:F35)</f>
@@ -992,10 +992,10 @@
       </c>
       <c r="C13" s="19" t="n">
         <f aca="false">SUM(D13:Z13)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" s="20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -1026,11 +1026,11 @@
       </c>
       <c r="C14" s="19" t="n">
         <f aca="false">SUM(D14:Z14)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -2068,7 +2068,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50BDA8B3-3EF0-42D4-8D1B-D5355790F3E2}</x14:id>
+          <x14:id>{904AA076-2044-406D-98BC-335062F7AA43}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2112,7 +2112,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59D6B3B2-2E62-4A86-BB19-3D7B965B8C86}</x14:id>
+          <x14:id>{8010B188-9A5F-4280-89CB-5B77EB972167}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2126,7 +2126,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B155CEB2-E0D4-47B6-86C2-445DE174E08B}</x14:id>
+          <x14:id>{B6826BBD-722B-4754-AC71-60EB90B17670}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2170,7 +2170,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E5EC5FB5-1A4E-4168-858A-D58A4B9079AA}</x14:id>
+          <x14:id>{801A6069-8D4F-49F1-826C-FB98819ADED6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2214,7 +2214,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D8FCFACD-9D35-40C5-A27D-A96E77194F80}</x14:id>
+          <x14:id>{B961DD3A-C631-4430-B8E9-7D4750DBC0D9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2258,7 +2258,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6668F520-F7F1-4073-B7B3-B011F8491FA3}</x14:id>
+          <x14:id>{E8843F1A-A7DE-44D7-A44B-76371D134D89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2302,7 +2302,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D09EC41B-23B0-44C5-9986-ADB393C41F21}</x14:id>
+          <x14:id>{E5E19293-30F7-445B-9E1A-C3D0936ABEDF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2418,7 +2418,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{50BDA8B3-3EF0-42D4-8D1B-D5355790F3E2}">
+          <x14:cfRule type="dataBar" id="{904AA076-2044-406D-98BC-335062F7AA43}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2429,7 +2429,7 @@
           <xm:sqref>C10:C28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{59D6B3B2-2E62-4A86-BB19-3D7B965B8C86}">
+          <x14:cfRule type="dataBar" id="{8010B188-9A5F-4280-89CB-5B77EB972167}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2440,7 +2440,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B155CEB2-E0D4-47B6-86C2-445DE174E08B}">
+          <x14:cfRule type="dataBar" id="{B6826BBD-722B-4754-AC71-60EB90B17670}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2451,7 +2451,7 @@
           <xm:sqref>C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E5EC5FB5-1A4E-4168-858A-D58A4B9079AA}">
+          <x14:cfRule type="dataBar" id="{801A6069-8D4F-49F1-826C-FB98819ADED6}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2462,7 +2462,7 @@
           <xm:sqref>C30:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D8FCFACD-9D35-40C5-A27D-A96E77194F80}">
+          <x14:cfRule type="dataBar" id="{B961DD3A-C631-4430-B8E9-7D4750DBC0D9}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2473,7 +2473,7 @@
           <xm:sqref>C35:C39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6668F520-F7F1-4073-B7B3-B011F8491FA3}">
+          <x14:cfRule type="dataBar" id="{E8843F1A-A7DE-44D7-A44B-76371D134D89}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2484,7 +2484,7 @@
           <xm:sqref>C40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D09EC41B-23B0-44C5-9986-ADB393C41F21}">
+          <x14:cfRule type="dataBar" id="{E5E19293-30F7-445B-9E1A-C3D0936ABEDF}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/organisation personnelle/gantt.xlsx
+++ b/organisation personnelle/gantt.xlsx
@@ -597,8 +597,8 @@
   </sheetPr>
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -663,7 +663,7 @@
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">SUM(D10:D35)</f>
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="n">
         <f aca="false">SUM(E10:E35)</f>
@@ -671,19 +671,19 @@
       </c>
       <c r="F7" s="5" t="n">
         <f aca="false">SUM(F10:F35)</f>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G7" s="5" t="n">
         <f aca="false">SUM(G10:G35)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">SUM(H10:H35)</f>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">SUM(I10:I35)</f>
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J7" s="6" t="n">
         <f aca="false">SUM(J10:J35)</f>
@@ -995,9 +995,11 @@
         <v>30</v>
       </c>
       <c r="D13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -1026,13 +1028,15 @@
       </c>
       <c r="C14" s="19" t="n">
         <f aca="false">SUM(D14:Z14)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -1097,10 +1101,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="21" t="n">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -1128,16 +1132,16 @@
       </c>
       <c r="C17" s="19" t="n">
         <f aca="false">SUM(D17:Z17)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="F17" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="21" t="n">
+        <v>20</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -1168,10 +1172,10 @@
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21" t="n">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -1202,10 +1206,10 @@
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -1236,10 +1240,10 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="21" t="n">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -1305,10 +1309,10 @@
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
@@ -1339,10 +1343,10 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
@@ -1368,14 +1372,12 @@
       </c>
       <c r="C24" s="19" t="n">
         <f aca="false">SUM(D24:Z24)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21" t="n">
-        <v>6</v>
-      </c>
+      <c r="G24" s="21"/>
       <c r="H24" s="21" t="n">
         <v>9</v>
       </c>
@@ -1444,10 +1446,10 @@
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="21" t="n">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -1478,11 +1480,9 @@
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="21" t="n">
-        <v>35</v>
-      </c>
+      <c r="H27" s="21"/>
       <c r="I27" s="21" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -2068,7 +2068,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{904AA076-2044-406D-98BC-335062F7AA43}</x14:id>
+          <x14:id>{DE3CE5F0-5845-4DBA-81B5-94FDC55F5944}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2112,7 +2112,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8010B188-9A5F-4280-89CB-5B77EB972167}</x14:id>
+          <x14:id>{76F0A9B9-B7E8-4DF0-AF69-CBF2BF3B4DFE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2126,7 +2126,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B6826BBD-722B-4754-AC71-60EB90B17670}</x14:id>
+          <x14:id>{4BFB4663-8039-476C-B99D-BAAFCAAEB95D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2170,7 +2170,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{801A6069-8D4F-49F1-826C-FB98819ADED6}</x14:id>
+          <x14:id>{4DACF048-6ACF-4283-A055-4141E9CB8660}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2214,7 +2214,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B961DD3A-C631-4430-B8E9-7D4750DBC0D9}</x14:id>
+          <x14:id>{DE3A3125-D781-4EEB-BFA6-3CD0BA9310C0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2258,7 +2258,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E8843F1A-A7DE-44D7-A44B-76371D134D89}</x14:id>
+          <x14:id>{90CAAC60-3BB8-4688-8510-99CD5BCA9719}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2302,7 +2302,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E5E19293-30F7-445B-9E1A-C3D0936ABEDF}</x14:id>
+          <x14:id>{B0F2A4CA-CEE6-43BA-B211-4E4ED7B93C98}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2418,7 +2418,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{904AA076-2044-406D-98BC-335062F7AA43}">
+          <x14:cfRule type="dataBar" id="{DE3CE5F0-5845-4DBA-81B5-94FDC55F5944}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2429,7 +2429,7 @@
           <xm:sqref>C10:C28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8010B188-9A5F-4280-89CB-5B77EB972167}">
+          <x14:cfRule type="dataBar" id="{76F0A9B9-B7E8-4DF0-AF69-CBF2BF3B4DFE}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2440,7 +2440,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6826BBD-722B-4754-AC71-60EB90B17670}">
+          <x14:cfRule type="dataBar" id="{4BFB4663-8039-476C-B99D-BAAFCAAEB95D}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2451,7 +2451,7 @@
           <xm:sqref>C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{801A6069-8D4F-49F1-826C-FB98819ADED6}">
+          <x14:cfRule type="dataBar" id="{4DACF048-6ACF-4283-A055-4141E9CB8660}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2462,7 +2462,7 @@
           <xm:sqref>C30:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B961DD3A-C631-4430-B8E9-7D4750DBC0D9}">
+          <x14:cfRule type="dataBar" id="{DE3A3125-D781-4EEB-BFA6-3CD0BA9310C0}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2473,7 +2473,7 @@
           <xm:sqref>C35:C39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E8843F1A-A7DE-44D7-A44B-76371D134D89}">
+          <x14:cfRule type="dataBar" id="{90CAAC60-3BB8-4688-8510-99CD5BCA9719}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2484,7 +2484,7 @@
           <xm:sqref>C40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E5E19293-30F7-445B-9E1A-C3D0936ABEDF}">
+          <x14:cfRule type="dataBar" id="{B0F2A4CA-CEE6-43BA-B211-4E4ED7B93C98}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
